--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Bmp6-Bmpr1b.xlsx
@@ -528,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H2">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I2">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J2">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,22 +558,22 @@
         <v>4.73814</v>
       </c>
       <c r="O2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P2">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q2">
-        <v>50.26455976938</v>
+        <v>66.98032758251999</v>
       </c>
       <c r="R2">
-        <v>452.38103792442</v>
+        <v>602.82294824268</v>
       </c>
       <c r="S2">
-        <v>0.438740623692882</v>
+        <v>0.5165946433647048</v>
       </c>
       <c r="T2">
-        <v>0.438740623692882</v>
+        <v>0.5165946433647048</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>31.825501</v>
+        <v>42.409254</v>
       </c>
       <c r="H3">
-        <v>95.47650300000001</v>
+        <v>127.227762</v>
       </c>
       <c r="I3">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="J3">
-        <v>0.6063608875535647</v>
+        <v>0.6138221220752584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N3">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P3">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q3">
-        <v>19.2035073034</v>
+        <v>12.606263842844</v>
       </c>
       <c r="R3">
-        <v>172.8315657306</v>
+        <v>113.456374585596</v>
       </c>
       <c r="S3">
-        <v>0.1676202638606827</v>
+        <v>0.09722747871055362</v>
       </c>
       <c r="T3">
-        <v>0.1676202638606827</v>
+        <v>0.09722747871055362</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>14.538842</v>
       </c>
       <c r="I4">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J4">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,10 +682,10 @@
         <v>4.73814</v>
       </c>
       <c r="O4">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P4">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q4">
         <v>7.654118759319998</v>
@@ -694,10 +694,10 @@
         <v>68.88706883387999</v>
       </c>
       <c r="S4">
-        <v>0.06680995225445434</v>
+        <v>0.05903340418678267</v>
       </c>
       <c r="T4">
-        <v>0.06680995225445434</v>
+        <v>0.05903340418678267</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>14.538842</v>
       </c>
       <c r="I5">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="J5">
-        <v>0.09233460445363234</v>
+        <v>0.07014398987036251</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N5">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O5">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P5">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q5">
-        <v>2.924245754266666</v>
+        <v>1.440569851581778</v>
       </c>
       <c r="R5">
-        <v>26.3182117884</v>
+        <v>12.965128664236</v>
       </c>
       <c r="S5">
-        <v>0.02552465219917801</v>
+        <v>0.01111058568357983</v>
       </c>
       <c r="T5">
-        <v>0.02552465219917801</v>
+        <v>0.01111058568357983</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H6">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I6">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J6">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>4.73814</v>
       </c>
       <c r="O6">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="P6">
-        <v>0.7235635290775982</v>
+        <v>0.8416031693647025</v>
       </c>
       <c r="Q6">
-        <v>24.9767733402</v>
+        <v>34.48564753172</v>
       </c>
       <c r="R6">
-        <v>224.7909600618</v>
+        <v>310.37082778548</v>
       </c>
       <c r="S6">
-        <v>0.2180129531302619</v>
+        <v>0.2659751218132151</v>
       </c>
       <c r="T6">
-        <v>0.218012953130262</v>
+        <v>0.265975121813215</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>15.81429</v>
+        <v>21.83492733333334</v>
       </c>
       <c r="H7">
-        <v>47.44287</v>
+        <v>65.50478200000001</v>
       </c>
       <c r="I7">
-        <v>0.301304507992803</v>
+        <v>0.3160338880543792</v>
       </c>
       <c r="J7">
-        <v>0.3013045079928031</v>
+        <v>0.3160338880543791</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.6034</v>
+        <v>0.2972526666666667</v>
       </c>
       <c r="N7">
-        <v>1.8102</v>
+        <v>0.8917580000000001</v>
       </c>
       <c r="O7">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="P7">
-        <v>0.2764364709224018</v>
+        <v>0.1583968306352975</v>
       </c>
       <c r="Q7">
-        <v>9.542342586</v>
+        <v>6.490490376306223</v>
       </c>
       <c r="R7">
-        <v>85.88108327400001</v>
+        <v>58.41441338675601</v>
       </c>
       <c r="S7">
-        <v>0.08329155486254106</v>
+        <v>0.05005876624116407</v>
       </c>
       <c r="T7">
-        <v>0.08329155486254107</v>
+        <v>0.05005876624116405</v>
       </c>
     </row>
   </sheetData>
